--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\PWL_POS\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A0E3E0-6F13-43FD-84E6-FC23E4311E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B097EA-C3BB-4353-BCCE-0E7D8493C392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{EFBF71C8-0B09-4A6E-8426-27BBAEFA66DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B19C4BC6-2A03-4F0F-A91E-66AF3B50EE51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,41 +51,41 @@
     <t>harga_jual</t>
   </si>
   <si>
-    <t>SBK-003</t>
-  </si>
-  <si>
-    <t>SNK-003</t>
-  </si>
-  <si>
-    <t>MND-003</t>
-  </si>
-  <si>
-    <t>BAY-003</t>
-  </si>
-  <si>
-    <t>MNM-003</t>
-  </si>
-  <si>
-    <t>Telur Omega (10 butir)</t>
-  </si>
-  <si>
-    <t>Sari Roti</t>
-  </si>
-  <si>
-    <t>Shampoo Pantene</t>
-  </si>
-  <si>
-    <t>Baju Bayi 2th</t>
-  </si>
-  <si>
-    <t>Cle 600mL</t>
+    <t>BR016</t>
+  </si>
+  <si>
+    <t>BR017</t>
+  </si>
+  <si>
+    <t>BR018</t>
+  </si>
+  <si>
+    <t>BR019</t>
+  </si>
+  <si>
+    <t>BR020</t>
+  </si>
+  <si>
+    <t>Turbocharger</t>
+  </si>
+  <si>
+    <t>Radiator Racing</t>
+  </si>
+  <si>
+    <t>Knalpot Carbon Fiber</t>
+  </si>
+  <si>
+    <t>Velg Alloy 19 Inch</t>
+  </si>
+  <si>
+    <t>Air Suspension System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,9 +128,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,121 +452,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E535F2-E6D8-4B05-AB22-A59595707A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8B8A40-20B7-4307-B3B0-77B494F88F68}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.265625" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>22000</v>
-      </c>
-      <c r="E2">
-        <v>25000</v>
+      <c r="D2" s="1">
+        <v>5500000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>11500</v>
-      </c>
-      <c r="E3">
-        <v>12500</v>
+      <c r="D3" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1700000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>17500</v>
-      </c>
-      <c r="E4">
-        <v>18500</v>
+      <c r="D4" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2400000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>89000</v>
-      </c>
-      <c r="E5">
-        <v>92500</v>
+      <c r="D5" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3800000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>3750</v>
-      </c>
-      <c r="E6">
-        <v>4300</v>
+      <c r="D6" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5500000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>